--- a/Dip/examples/Dippy/SolverStudio/SolverStudioExamples.xlsx
+++ b/Dip/examples/Dippy/SolverStudio/SolverStudioExamples.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\ted\COIN\trunk\Dip\examples\Dippy\SolverStudio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\ted\COIN\Dip-trunk\Dip\examples\Dippy\SolverStudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -685,146 +685,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.14996795556505021"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -888,6 +753,47 @@
       <font>
         <color theme="0" tint="-0.14996795556505021"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.14996795556505021"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2119,27 +2025,27 @@
       <c r="AU11" s="1"/>
       <c r="AV11" s="3">
         <f ca="1">RANDBETWEEN(1, $B$3)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW11" s="3">
         <f t="shared" ref="AW11:CI11" ca="1" si="0">RANDBETWEEN(1, $B$3)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AY11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BA11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BB11" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -2147,7 +2053,7 @@
       </c>
       <c r="BC11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD11" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -2155,43 +2061,43 @@
       </c>
       <c r="BE11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BF11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BI11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BJ11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BK11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BL11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="BM11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BN11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BO11" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -2199,31 +2105,31 @@
       </c>
       <c r="BP11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BQ11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BR11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BS11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BT11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BU11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BV11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BW11" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -2231,51 +2137,51 @@
       </c>
       <c r="BX11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BY11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BZ11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="CA11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CB11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CC11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="CD11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="CE11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="CF11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="CG11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="CH11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CI11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CJ11" s="20" t="s">
         <v>10</v>
@@ -2422,7 +2328,7 @@
       </c>
       <c r="AV12" s="4">
         <f ca="1">IF(RAND() &lt; $B$1,  RANDBETWEEN(1, $B$2), 0)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AW12" s="5">
         <f t="shared" ref="AW12:CI18" ca="1" si="1">IF(RAND() &lt; $B$1,  RANDBETWEEN(1, $B$2), 0)</f>
@@ -2442,63 +2348,63 @@
       </c>
       <c r="BA12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB12" s="5">
         <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BC12" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BD12" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BE12" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BF12" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BG12" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BH12" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BI12" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BK12" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="BL12" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="BM12" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BN12" s="5">
+        <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
-      <c r="BC12" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BD12" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="BE12" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BF12" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BG12" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BH12" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BI12" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BJ12" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BK12" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BL12" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BM12" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BN12" s="5">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
       <c r="BO12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BP12" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -2510,11 +2416,11 @@
       </c>
       <c r="BR12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BT12" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -2534,7 +2440,7 @@
       </c>
       <c r="BX12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BY12" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -2542,7 +2448,7 @@
       </c>
       <c r="BZ12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CA12" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -2558,11 +2464,11 @@
       </c>
       <c r="CD12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CE12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CF12" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -2578,7 +2484,7 @@
       </c>
       <c r="CI12" s="6">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CJ12" s="29">
         <f t="shared" ref="CJ12:CJ31" ca="1" si="2">RANDBETWEEN($M$10*$B$1*$B$2/$B$4, $M$10*$B$1*$B$2/1.5)</f>
@@ -2738,7 +2644,7 @@
       </c>
       <c r="AZ13" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BA13" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -2746,11 +2652,11 @@
       </c>
       <c r="BB13" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC13" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -2758,127 +2664,127 @@
       </c>
       <c r="BE13" s="3">
         <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="BF13" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BG13" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BH13" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BI13" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BK13" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BL13" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BM13" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BN13" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BO13" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BP13" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="BQ13" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BR13" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BS13" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="BT13" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BU13" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BV13" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BW13" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BX13" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BY13" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="BZ13" s="3">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="BF13" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="BG13" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BH13" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BI13" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BJ13" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BK13" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BL13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BM13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="BN13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BO13" s="3">
+      <c r="CA13" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="BP13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BQ13" s="3">
+      <c r="CB13" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CC13" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CD13" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CE13" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CF13" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="BR13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="BS13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="BT13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BU13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BV13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BW13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BX13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="BY13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BZ13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CA13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CB13" s="3">
+      <c r="CG13" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CH13" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CI13" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>9</v>
-      </c>
-      <c r="CC13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CD13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CE13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CF13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CG13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CH13" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CI13" s="8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
       </c>
       <c r="CJ13" s="30">
         <f t="shared" ca="1" si="2"/>
@@ -3030,7 +2936,7 @@
       </c>
       <c r="AX14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AY14" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -3046,7 +2952,7 @@
       </c>
       <c r="BB14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BC14" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -3066,115 +2972,115 @@
       </c>
       <c r="BG14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH14" s="3">
         <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BI14" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BK14" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BL14" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BM14" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BN14" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BO14" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BP14" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BQ14" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BR14" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BS14" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BT14" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BU14" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="BV14" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BW14" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BX14" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BY14" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="BZ14" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CA14" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CB14" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CC14" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CD14" s="3">
+        <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
-      <c r="BI14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BJ14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BK14" s="3">
+      <c r="CE14" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
-      <c r="BL14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BM14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BN14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BO14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BP14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BQ14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BR14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BS14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BT14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BU14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BV14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BW14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BX14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BY14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BZ14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="CA14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CB14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CC14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CD14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CE14" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
       <c r="CF14" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="CG14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CH14" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CI14" s="8">
         <f t="shared" ca="1" si="1"/>
@@ -3322,11 +3228,11 @@
       </c>
       <c r="AV15" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AW15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AX15" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -3346,7 +3252,7 @@
       </c>
       <c r="BB15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BC15" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -3354,7 +3260,7 @@
       </c>
       <c r="BD15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BE15" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -3362,15 +3268,15 @@
       </c>
       <c r="BF15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BH15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -3382,11 +3288,11 @@
       </c>
       <c r="BK15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BM15" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -3394,7 +3300,7 @@
       </c>
       <c r="BN15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BO15" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -3402,7 +3308,7 @@
       </c>
       <c r="BP15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BQ15" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -3466,7 +3372,7 @@
       </c>
       <c r="CF15" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CG15" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -3478,7 +3384,7 @@
       </c>
       <c r="CI15" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CJ15" s="30">
         <f t="shared" ca="1" si="2"/>
@@ -3622,15 +3528,15 @@
       </c>
       <c r="AV16" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -3638,7 +3544,7 @@
       </c>
       <c r="AZ16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BA16" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -3650,7 +3556,7 @@
       </c>
       <c r="BC16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BD16" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -3662,11 +3568,11 @@
       </c>
       <c r="BF16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BH16" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -3694,7 +3600,7 @@
       </c>
       <c r="BN16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BO16" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -3714,15 +3620,15 @@
       </c>
       <c r="BS16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BT16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BU16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BV16" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -3754,7 +3660,7 @@
       </c>
       <c r="CC16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CD16" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -3766,7 +3672,7 @@
       </c>
       <c r="CF16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CG16" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -3774,11 +3680,11 @@
       </c>
       <c r="CH16" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CI16" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ16" s="30">
         <f t="shared" ca="1" si="2"/>
@@ -3946,96 +3852,96 @@
       </c>
       <c r="BB17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BD17" s="3">
         <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BE17" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BF17" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BG17" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BH17" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BI17" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BK17" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BL17" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BM17" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BN17" s="3">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="BE17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="BF17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BG17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BH17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BI17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BJ17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BK17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BL17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BM17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BN17" s="3">
+      <c r="BO17" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BP17" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="BQ17" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BR17" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>7</v>
       </c>
-      <c r="BO17" s="3">
+      <c r="BS17" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BT17" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="BU17" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="BV17" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BW17" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BX17" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>3</v>
       </c>
-      <c r="BP17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BQ17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BR17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BS17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BT17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BU17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BV17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BW17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="BX17" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
       <c r="BY17" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
@@ -4046,7 +3952,7 @@
       </c>
       <c r="CA17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CB17" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -4062,7 +3968,7 @@
       </c>
       <c r="CE17" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="CF17" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -4222,7 +4128,7 @@
       </c>
       <c r="AV18" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW18" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -4230,135 +4136,135 @@
       </c>
       <c r="AX18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AY18" s="3">
         <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BA18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BB18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BC18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BD18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BE18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BF18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BG18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BH18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BI18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BK18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BL18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="BM18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="BN18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="BO18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="BP18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BQ18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BR18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BS18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="BT18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BU18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BV18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BW18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BX18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BY18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="BZ18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CA18" s="3">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="CB18" s="3">
+        <f t="shared" ca="1" si="1"/>
         <v>9</v>
       </c>
-      <c r="AZ18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="BA18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BB18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BC18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BD18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BE18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BF18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BG18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BH18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BI18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BJ18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BK18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="BL18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BM18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BN18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BO18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BP18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BQ18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BR18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BS18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="BT18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BU18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="BV18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BW18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BX18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BY18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BZ18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CA18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="CB18" s="3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
-      </c>
       <c r="CC18" s="3">
         <f t="shared" ca="1" si="1"/>
         <v>0</v>
       </c>
       <c r="CD18" s="3">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CE18" s="3">
         <f t="shared" ca="1" si="1"/>
@@ -4370,11 +4276,11 @@
       </c>
       <c r="CG18" s="3">
         <f t="shared" ref="AW18:CI25" ca="1" si="4">IF(RAND() &lt; $B$1,  RANDBETWEEN(1, $B$2), 0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CH18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CI18" s="8">
         <f t="shared" ca="1" si="4"/>
@@ -4522,19 +4428,19 @@
       </c>
       <c r="AV19" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AW19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AX19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AZ19" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -4566,7 +4472,7 @@
       </c>
       <c r="BG19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BH19" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -4578,7 +4484,7 @@
       </c>
       <c r="BJ19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BK19" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -4594,7 +4500,7 @@
       </c>
       <c r="BN19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BO19" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -4602,11 +4508,11 @@
       </c>
       <c r="BP19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BQ19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BR19" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -4618,11 +4524,11 @@
       </c>
       <c r="BT19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BU19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV19" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -4658,11 +4564,11 @@
       </c>
       <c r="CD19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CE19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CF19" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -4674,7 +4580,7 @@
       </c>
       <c r="CH19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CI19" s="8">
         <f t="shared" ca="1" si="4"/>
@@ -4822,7 +4728,7 @@
       </c>
       <c r="AV20" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AW20" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -4834,7 +4740,7 @@
       </c>
       <c r="AY20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AZ20" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -4842,7 +4748,7 @@
       </c>
       <c r="BA20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BB20" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -4870,7 +4776,7 @@
       </c>
       <c r="BH20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BI20" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -4882,7 +4788,7 @@
       </c>
       <c r="BK20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BL20" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -4894,11 +4800,11 @@
       </c>
       <c r="BN20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BO20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP20" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -4918,7 +4824,7 @@
       </c>
       <c r="BT20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BU20" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -4926,7 +4832,7 @@
       </c>
       <c r="BV20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BW20" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -4950,11 +4856,11 @@
       </c>
       <c r="CB20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD20" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -4966,11 +4872,11 @@
       </c>
       <c r="CF20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CG20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CH20" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -5126,32 +5032,32 @@
       </c>
       <c r="AW21" s="3">
         <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AX21" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="AY21" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="AZ21" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BA21" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="BB21" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BC21" s="3">
+        <f t="shared" ca="1" si="4"/>
         <v>10</v>
       </c>
-      <c r="AX21" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AY21" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AZ21" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="BA21" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="BB21" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BC21" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
       <c r="BD21" s="3">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
@@ -5166,7 +5072,7 @@
       </c>
       <c r="BG21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH21" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -5186,7 +5092,7 @@
       </c>
       <c r="BL21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BM21" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -5198,7 +5104,7 @@
       </c>
       <c r="BO21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP21" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -5206,7 +5112,7 @@
       </c>
       <c r="BQ21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BR21" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -5214,7 +5120,7 @@
       </c>
       <c r="BS21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BT21" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -5246,11 +5152,11 @@
       </c>
       <c r="CA21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CB21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -5258,11 +5164,11 @@
       </c>
       <c r="CD21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CE21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CF21" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -5478,15 +5384,15 @@
       </c>
       <c r="BJ22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BK22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BL22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BM22" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -5506,7 +5412,7 @@
       </c>
       <c r="BQ22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BR22" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -5518,7 +5424,7 @@
       </c>
       <c r="BT22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BU22" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -5526,15 +5432,15 @@
       </c>
       <c r="BV22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BW22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BX22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BY22" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -5542,11 +5448,11 @@
       </c>
       <c r="BZ22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CA22" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CB22" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -5578,7 +5484,7 @@
       </c>
       <c r="CI22" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CJ22" s="30">
         <f t="shared" ca="1" si="2"/>
@@ -5737,147 +5643,147 @@
       </c>
       <c r="AZ23" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA23" s="3">
         <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BB23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BC23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BD23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="BF23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BG23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BH23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="BI23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BJ23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BK23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BL23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BM23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BN23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BO23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BP23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BQ23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BR23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BS23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BT23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BU23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="BV23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BW23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BX23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="BY23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BZ23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="CA23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="CB23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="CC23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="CD23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="CE23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="CF23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="CG23" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="CH23" s="3">
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
-      <c r="BB23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BC23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BD23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="BE23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BF23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BG23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BH23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BI23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BJ23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BK23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BL23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BM23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BN23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="BO23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BP23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BQ23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="BR23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BS23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BT23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="BU23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BV23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="BW23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BX23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BY23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BZ23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CA23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CB23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CC23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CD23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CE23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="CF23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CG23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CH23" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
       <c r="CI23" s="8">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CJ23" s="30">
         <f t="shared" ca="1" si="2"/>
@@ -6024,7 +5930,7 @@
       </c>
       <c r="AW24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AX24" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -6036,139 +5942,139 @@
       </c>
       <c r="AZ24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA24" s="3">
         <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BB24" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BC24" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BD24" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE24" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BF24" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BG24" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BH24" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="BI24" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BJ24" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BK24" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BL24" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BM24" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BN24" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BO24" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BP24" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="BQ24" s="3">
+        <f t="shared" ca="1" si="4"/>
         <v>6</v>
       </c>
-      <c r="BB24" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BC24" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BD24" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BE24" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BF24" s="3">
+      <c r="BR24" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BS24" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BT24" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BU24" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="BV24" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BW24" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BX24" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BY24" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BZ24" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="CA24" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="CB24" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="CC24" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="CD24" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="CE24" s="3">
         <f t="shared" ca="1" si="4"/>
         <v>6</v>
       </c>
-      <c r="BG24" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BH24" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BI24" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="BJ24" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BK24" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BL24" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BM24" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BN24" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BO24" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BP24" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BQ24" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BR24" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BS24" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BT24" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BU24" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BV24" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BW24" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BX24" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="BY24" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="BZ24" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CA24" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="CB24" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CC24" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CD24" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CE24" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
       <c r="CF24" s="3">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="CG24" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CH24" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -6323,11 +6229,11 @@
       </c>
       <c r="AW25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AX25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AY25" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -6343,20 +6249,20 @@
       </c>
       <c r="BB25" s="3">
         <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BC25" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BD25" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BE25" s="3">
+        <f t="shared" ca="1" si="4"/>
         <v>7</v>
       </c>
-      <c r="BC25" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BD25" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="BE25" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
       <c r="BF25" s="3">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
@@ -6367,7 +6273,7 @@
       </c>
       <c r="BH25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI25" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -6375,7 +6281,7 @@
       </c>
       <c r="BJ25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BK25" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -6383,11 +6289,11 @@
       </c>
       <c r="BL25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BM25" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BN25" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -6407,7 +6313,7 @@
       </c>
       <c r="BR25" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BS25" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -6419,7 +6325,7 @@
       </c>
       <c r="BU25" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BV25" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -6431,11 +6337,11 @@
       </c>
       <c r="BX25" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BY25" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BZ25" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -6443,7 +6349,7 @@
       </c>
       <c r="CA25" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CB25" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -6467,7 +6373,7 @@
       </c>
       <c r="CG25" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CH25" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -6630,7 +6536,7 @@
       </c>
       <c r="AY26" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ26" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -6638,7 +6544,7 @@
       </c>
       <c r="BA26" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB26" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -6654,7 +6560,7 @@
       </c>
       <c r="BE26" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BF26" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -6670,11 +6576,11 @@
       </c>
       <c r="BI26" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ26" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BK26" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -6690,87 +6596,87 @@
       </c>
       <c r="BN26" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BO26" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP26" s="3">
         <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BQ26" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BR26" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BS26" s="3">
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
-      <c r="BQ26" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BR26" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BS26" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
       <c r="BT26" s="3">
         <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BU26" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BV26" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BW26" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BX26" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BY26" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BZ26" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CA26" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CB26" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CC26" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CD26" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CE26" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF26" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CG26" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CH26" s="3">
+        <f t="shared" ca="1" si="5"/>
         <v>6</v>
-      </c>
-      <c r="BU26" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BV26" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="BW26" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BX26" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BY26" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BZ26" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CA26" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CB26" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CC26" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="CD26" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="CE26" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="CF26" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="CG26" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="CH26" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>7</v>
       </c>
       <c r="CI26" s="8">
         <f t="shared" ca="1" si="5"/>
@@ -6925,80 +6831,80 @@
       </c>
       <c r="AX27" s="3">
         <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AY27" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="AZ27" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BA27" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BB27" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BC27" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="BD27" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="BE27" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BF27" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="BG27" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="BH27" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BI27" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ27" s="3">
+        <f t="shared" ca="1" si="5"/>
         <v>6</v>
       </c>
-      <c r="AY27" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AZ27" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BA27" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BB27" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BC27" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BD27" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BE27" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BF27" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BG27" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="BH27" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BI27" s="3">
+      <c r="BK27" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BL27" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BM27" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN27" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BO27" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BP27" s="3">
         <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
-      <c r="BJ27" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="BK27" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BL27" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BM27" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BN27" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BO27" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="BP27" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
       <c r="BQ27" s="3">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
@@ -7009,7 +6915,7 @@
       </c>
       <c r="BS27" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BT27" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -7029,7 +6935,7 @@
       </c>
       <c r="BX27" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BY27" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -7037,7 +6943,7 @@
       </c>
       <c r="BZ27" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CA27" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -7057,7 +6963,7 @@
       </c>
       <c r="CE27" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CF27" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -7065,7 +6971,7 @@
       </c>
       <c r="CG27" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CH27" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -7073,7 +6979,7 @@
       </c>
       <c r="CI27" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CJ27" s="30">
         <f t="shared" ca="1" si="2"/>
@@ -7216,7 +7122,7 @@
       </c>
       <c r="AV28" s="7">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AW28" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -7224,7 +7130,7 @@
       </c>
       <c r="AX28" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY28" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -7232,11 +7138,11 @@
       </c>
       <c r="AZ28" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BA28" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BB28" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -7244,7 +7150,7 @@
       </c>
       <c r="BC28" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BD28" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -7256,7 +7162,7 @@
       </c>
       <c r="BF28" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BG28" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -7264,11 +7170,11 @@
       </c>
       <c r="BH28" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BI28" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BJ28" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -7276,11 +7182,11 @@
       </c>
       <c r="BK28" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL28" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BM28" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -7296,7 +7202,7 @@
       </c>
       <c r="BP28" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ28" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -7316,7 +7222,7 @@
       </c>
       <c r="BU28" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BV28" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -7332,7 +7238,7 @@
       </c>
       <c r="BY28" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BZ28" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -7340,11 +7246,11 @@
       </c>
       <c r="CA28" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CB28" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC28" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -7352,7 +7258,7 @@
       </c>
       <c r="CD28" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CE28" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -7368,7 +7274,7 @@
       </c>
       <c r="CH28" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CI28" s="8">
         <f t="shared" ca="1" si="5"/>
@@ -7523,11 +7429,11 @@
       </c>
       <c r="AX29" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AY29" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AZ29" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -7543,7 +7449,7 @@
       </c>
       <c r="BC29" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BD29" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -7551,7 +7457,7 @@
       </c>
       <c r="BE29" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BF29" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -7563,115 +7469,115 @@
       </c>
       <c r="BH29" s="3">
         <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BI29" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ29" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BK29" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BL29" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="BM29" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="BN29" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BO29" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BP29" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="BQ29" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BR29" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BS29" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BT29" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BU29" s="3">
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
-      <c r="BI29" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ29" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BK29" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BL29" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BM29" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BN29" s="3">
+      <c r="BV29" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BW29" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BX29" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BY29" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BZ29" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CA29" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CB29" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="CC29" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CD29" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CE29" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF29" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CG29" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="CH29" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CI29" s="8">
         <f t="shared" ca="1" si="5"/>
         <v>9</v>
-      </c>
-      <c r="BO29" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BP29" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BQ29" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="BR29" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BS29" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BT29" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BU29" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="BV29" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BW29" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BX29" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BY29" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BZ29" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CA29" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CB29" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CC29" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CD29" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CE29" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CF29" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="CG29" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CH29" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CI29" s="8">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
       </c>
       <c r="CJ29" s="30">
         <f t="shared" ca="1" si="2"/>
@@ -7826,7 +7732,7 @@
       </c>
       <c r="AY30" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AZ30" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -7846,131 +7752,131 @@
       </c>
       <c r="BD30" s="3">
         <f t="shared" ca="1" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="BE30" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BF30" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BG30" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BH30" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BI30" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BJ30" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BK30" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BL30" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BM30" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="BN30" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BO30" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BP30" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="BQ30" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BR30" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BS30" s="3">
+        <f t="shared" ca="1" si="5"/>
         <v>8</v>
       </c>
-      <c r="BE30" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BF30" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BG30" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="BH30" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BI30" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ30" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BK30" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BL30" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BM30" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BN30" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BO30" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="BP30" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BQ30" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BR30" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BS30" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
       <c r="BT30" s="3">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="BU30" s="3">
         <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BV30" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BW30" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BX30" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BY30" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BZ30" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CA30" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CB30" s="3">
+        <f t="shared" ca="1" si="5"/>
         <v>5</v>
       </c>
-      <c r="BV30" s="3">
+      <c r="CC30" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="CD30" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="CE30" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF30" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CG30" s="3">
         <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
-      <c r="BW30" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BX30" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BY30" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="BZ30" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CA30" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CB30" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CC30" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CD30" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="CE30" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CF30" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CG30" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
       <c r="CH30" s="3">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="CI30" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CJ30" s="30">
         <f t="shared" ca="1" si="2"/>
@@ -8113,7 +8019,7 @@
       </c>
       <c r="AV31" s="9">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW31" s="10">
         <f t="shared" ca="1" si="5"/>
@@ -8125,7 +8031,7 @@
       </c>
       <c r="AY31" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AZ31" s="10">
         <f t="shared" ca="1" si="5"/>
@@ -8133,119 +8039,119 @@
       </c>
       <c r="BA31" s="10">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB31" s="10">
         <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BC31" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="BD31" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BE31" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BF31" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BG31" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BH31" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BI31" s="10">
+        <f t="shared" ca="1" si="5"/>
         <v>5</v>
       </c>
-      <c r="BC31" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BD31" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BE31" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BF31" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BG31" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BH31" s="10">
+      <c r="BJ31" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BK31" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BL31" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BM31" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BN31" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BO31" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BP31" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BQ31" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BR31" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BS31" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BT31" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BU31" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BV31" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BW31" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BX31" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="BY31" s="10">
         <f t="shared" ca="1" si="5"/>
         <v>5</v>
       </c>
-      <c r="BI31" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BJ31" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="BK31" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BL31" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BM31" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="BN31" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BO31" s="10">
+      <c r="BZ31" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CA31" s="10">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CB31" s="10">
         <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
-      <c r="BP31" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BQ31" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="BR31" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BS31" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BT31" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BU31" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BV31" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BW31" s="10">
+      <c r="CC31" s="10">
         <f t="shared" ca="1" si="5"/>
         <v>8</v>
-      </c>
-      <c r="BX31" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BY31" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="BZ31" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CA31" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CB31" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CC31" s="10">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
       </c>
       <c r="CD31" s="10">
         <f t="shared" ca="1" si="5"/>
@@ -8454,20 +8360,20 @@
     <mergeCell ref="I8:N8"/>
   </mergeCells>
   <conditionalFormatting sqref="AV12:CI31 C12:AP24">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:AP30">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:AP31">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9087,67 +8993,67 @@
       <c r="AU11" s="1"/>
       <c r="AV11" s="3">
         <f t="shared" ref="AV11:CI11" ca="1" si="0">RANDBETWEEN(1, $F$3)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AW11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AX11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AY11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AZ11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BE11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BF11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BI11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="BK11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BL11" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -9155,43 +9061,43 @@
       </c>
       <c r="BM11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BN11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BO11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BP11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BQ11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BR11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BS11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BT11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BU11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BV11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BW11" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -9199,23 +9105,23 @@
       </c>
       <c r="BX11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BY11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BZ11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CA11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="CB11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CC11" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -9227,23 +9133,23 @@
       </c>
       <c r="CE11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="CF11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="CG11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="CH11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="CI11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="CJ11" s="20" t="s">
         <v>10</v>
@@ -9391,7 +9297,7 @@
       </c>
       <c r="AV12" s="4">
         <f t="shared" ref="AV12:BE21" ca="1" si="2">IF(RAND() &lt; $F$1,  RANDBETWEEN(1, $F$2), 0)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AW12" s="5">
         <f t="shared" ca="1" si="2"/>
@@ -9403,7 +9309,7 @@
       </c>
       <c r="AY12" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AZ12" s="5">
         <f t="shared" ca="1" si="2"/>
@@ -9423,7 +9329,7 @@
       </c>
       <c r="BD12" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BE12" s="5">
         <f t="shared" ca="1" si="2"/>
@@ -9435,15 +9341,15 @@
       </c>
       <c r="BG12" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BH12" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BJ12" s="5">
         <f t="shared" ca="1" si="3"/>
@@ -9455,11 +9361,11 @@
       </c>
       <c r="BL12" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BM12" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="5">
         <f t="shared" ca="1" si="3"/>
@@ -9475,7 +9381,7 @@
       </c>
       <c r="BQ12" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BR12" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -9483,20 +9389,20 @@
       </c>
       <c r="BS12" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BT12" s="5">
         <f t="shared" ca="1" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="BU12" s="5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BV12" s="5">
+        <f t="shared" ca="1" si="4"/>
         <v>8</v>
       </c>
-      <c r="BU12" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BV12" s="5">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
       <c r="BW12" s="5">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
@@ -9507,11 +9413,11 @@
       </c>
       <c r="BY12" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BZ12" s="5">
         <f t="shared" ref="BZ12:CI21" ca="1" si="5">IF(RAND() &lt; $F$1,  RANDBETWEEN(1, $F$2), 0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CA12" s="5">
         <f t="shared" ca="1" si="5"/>
@@ -9531,7 +9437,7 @@
       </c>
       <c r="CE12" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CF12" s="5">
         <f t="shared" ca="1" si="5"/>
@@ -9696,15 +9602,15 @@
       </c>
       <c r="AW13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AY13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ13" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -9712,11 +9618,11 @@
       </c>
       <c r="BA13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BB13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC13" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -9748,7 +9654,7 @@
       </c>
       <c r="BJ13" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BK13" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -9756,7 +9662,7 @@
       </c>
       <c r="BL13" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BM13" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -9776,11 +9682,11 @@
       </c>
       <c r="BQ13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BR13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -9792,15 +9698,15 @@
       </c>
       <c r="BU13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BV13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BX13" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -9824,7 +9730,7 @@
       </c>
       <c r="CC13" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CD13" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -9836,11 +9742,11 @@
       </c>
       <c r="CF13" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CG13" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CH13" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -9848,7 +9754,7 @@
       </c>
       <c r="CI13" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CJ13" s="30">
         <f t="shared" ca="1" si="6"/>
@@ -10001,11 +9907,11 @@
       </c>
       <c r="AX14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AZ14" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -10013,7 +9919,7 @@
       </c>
       <c r="BA14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BB14" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -10021,7 +9927,7 @@
       </c>
       <c r="BC14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BD14" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -10029,7 +9935,7 @@
       </c>
       <c r="BE14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BF14" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -10041,11 +9947,11 @@
       </c>
       <c r="BH14" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI14" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ14" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -10077,7 +9983,7 @@
       </c>
       <c r="BQ14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BR14" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -10089,7 +9995,7 @@
       </c>
       <c r="BT14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BU14" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -10105,7 +10011,7 @@
       </c>
       <c r="BX14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BY14" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -10121,11 +10027,11 @@
       </c>
       <c r="CB14" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC14" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="CD14" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -10306,15 +10212,15 @@
       </c>
       <c r="AY15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BA15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BB15" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -10326,7 +10232,7 @@
       </c>
       <c r="BD15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE15" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -10342,7 +10248,7 @@
       </c>
       <c r="BH15" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BI15" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -10358,7 +10264,7 @@
       </c>
       <c r="BL15" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BM15" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -10414,11 +10320,11 @@
       </c>
       <c r="BZ15" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CA15" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CB15" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -10442,7 +10348,7 @@
       </c>
       <c r="CG15" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CH15" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -10450,7 +10356,7 @@
       </c>
       <c r="CI15" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CJ15" s="30">
         <f t="shared" ca="1" si="6"/>
@@ -10595,7 +10501,7 @@
       </c>
       <c r="AV16" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW16" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -10603,7 +10509,7 @@
       </c>
       <c r="AX16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY16" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -10635,123 +10541,123 @@
       </c>
       <c r="BF16" s="3">
         <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BG16" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BH16" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="BI16" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BJ16" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
-      <c r="BG16" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BH16" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="BK16" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BL16" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BM16" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BN16" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BO16" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BP16" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="BQ16" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BR16" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BS16" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BT16" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BU16" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="BV16" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="BW16" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BX16" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BY16" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BZ16" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CA16" s="3">
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
-      <c r="BI16" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BJ16" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BK16" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="BL16" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BM16" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="BN16" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BO16" s="3">
-        <f t="shared" ca="1" si="3"/>
+      <c r="CB16" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CC16" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CD16" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="CE16" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF16" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CG16" s="3">
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
-      <c r="BP16" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BQ16" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BR16" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BS16" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BT16" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BU16" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BV16" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BW16" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BX16" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="BY16" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BZ16" s="3">
+      <c r="CH16" s="3">
         <f t="shared" ca="1" si="5"/>
         <v>8</v>
       </c>
-      <c r="CA16" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CB16" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CC16" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CD16" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CE16" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="CF16" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CG16" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CH16" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
       <c r="CI16" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="CJ16" s="30">
         <f t="shared" ca="1" si="6"/>
@@ -10928,32 +10834,32 @@
       </c>
       <c r="BD17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BE17" s="3">
         <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="BF17" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BG17" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BH17" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="BI17" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>7</v>
       </c>
-      <c r="BF17" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BG17" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="BH17" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BI17" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BJ17" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
       <c r="BK17" s="3">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
@@ -10964,7 +10870,7 @@
       </c>
       <c r="BM17" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BN17" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -10980,75 +10886,75 @@
       </c>
       <c r="BQ17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BR17" s="3">
         <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BS17" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="BT17" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BU17" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BV17" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BW17" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BX17" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BY17" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="BZ17" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CA17" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CB17" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CC17" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CD17" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CE17" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF17" s="3">
+        <f t="shared" ca="1" si="5"/>
         <v>10</v>
       </c>
-      <c r="BS17" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="BT17" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BU17" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BV17" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BW17" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BX17" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BY17" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BZ17" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CA17" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CB17" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CC17" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="CD17" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CE17" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="CF17" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
       <c r="CG17" s="3">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
       <c r="CH17" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CI17" s="8">
         <f t="shared" ca="1" si="5"/>
@@ -11197,7 +11103,7 @@
       </c>
       <c r="AV18" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW18" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -11205,7 +11111,7 @@
       </c>
       <c r="AX18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY18" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -11213,7 +11119,7 @@
       </c>
       <c r="AZ18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BA18" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -11241,11 +11147,11 @@
       </c>
       <c r="BG18" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BH18" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI18" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -11257,15 +11163,15 @@
       </c>
       <c r="BK18" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BL18" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BM18" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BN18" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -11273,63 +11179,63 @@
       </c>
       <c r="BO18" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BP18" s="3">
         <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BQ18" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BR18" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BS18" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BT18" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BU18" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BV18" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BW18" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BX18" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BY18" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BZ18" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CA18" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CB18" s="3">
+        <f t="shared" ca="1" si="5"/>
         <v>9</v>
       </c>
-      <c r="BQ18" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BR18" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BS18" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BT18" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BU18" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BV18" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BW18" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="BX18" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BY18" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BZ18" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="CA18" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="CB18" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
       <c r="CC18" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CD18" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -11353,7 +11259,7 @@
       </c>
       <c r="CI18" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CJ18" s="30">
         <f t="shared" ca="1" si="6"/>
@@ -11498,7 +11404,7 @@
       </c>
       <c r="AV19" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AW19" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -11506,19 +11412,19 @@
       </c>
       <c r="AX19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AY19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA19" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BB19" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -11546,84 +11452,84 @@
       </c>
       <c r="BH19" s="3">
         <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BI19" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BJ19" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BK19" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BL19" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BM19" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BN19" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>2</v>
       </c>
-      <c r="BI19" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="BJ19" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BK19" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BL19" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BM19" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BN19" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
       <c r="BO19" s="3">
         <f t="shared" ca="1" si="3"/>
         <v>0</v>
       </c>
       <c r="BP19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BQ19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BR19" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="3">
         <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="BT19" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BU19" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BV19" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BW19" s="3">
+        <f t="shared" ca="1" si="4"/>
         <v>7</v>
       </c>
-      <c r="BT19" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BU19" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BV19" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="BW19" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
       <c r="BX19" s="3">
         <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BY19" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BZ19" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="CA19" s="3">
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
-      <c r="BY19" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BZ19" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CA19" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
       <c r="CB19" s="3">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
@@ -11634,11 +11540,11 @@
       </c>
       <c r="CD19" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CE19" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CF19" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -11650,11 +11556,11 @@
       </c>
       <c r="CH19" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CI19" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="CJ19" s="30">
         <f t="shared" ca="1" si="6"/>
@@ -11803,7 +11709,7 @@
       </c>
       <c r="AW20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AX20" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -11811,11 +11717,11 @@
       </c>
       <c r="AY20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AZ20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BA20" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -11823,7 +11729,7 @@
       </c>
       <c r="BB20" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC20" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -11847,7 +11753,7 @@
       </c>
       <c r="BH20" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -11855,7 +11761,7 @@
       </c>
       <c r="BJ20" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BK20" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -11883,11 +11789,11 @@
       </c>
       <c r="BQ20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BR20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BS20" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -11903,7 +11809,7 @@
       </c>
       <c r="BV20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BW20" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -11911,7 +11817,7 @@
       </c>
       <c r="BX20" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BY20" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -11919,23 +11825,23 @@
       </c>
       <c r="BZ20" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CA20" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="CB20" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CD20" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE20" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -11951,11 +11857,11 @@
       </c>
       <c r="CH20" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CI20" s="8">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="CJ20" s="30">
         <f t="shared" ca="1" si="6"/>
@@ -12100,7 +12006,7 @@
       </c>
       <c r="AV21" s="7">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW21" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -12108,7 +12014,7 @@
       </c>
       <c r="AX21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY21" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -12120,11 +12026,11 @@
       </c>
       <c r="BA21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BB21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC21" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -12132,11 +12038,11 @@
       </c>
       <c r="BD21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BE21" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BF21" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -12152,7 +12058,7 @@
       </c>
       <c r="BI21" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BJ21" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -12172,7 +12078,7 @@
       </c>
       <c r="BN21" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BO21" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -12184,39 +12090,39 @@
       </c>
       <c r="BQ21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BR21" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BS21" s="3">
         <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BT21" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BU21" s="3">
+        <f t="shared" ca="1" si="4"/>
         <v>4</v>
       </c>
-      <c r="BT21" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BU21" s="3">
+      <c r="BV21" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BW21" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BX21" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BY21" s="3">
         <f t="shared" ca="1" si="4"/>
         <v>3</v>
-      </c>
-      <c r="BV21" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BW21" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BX21" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BY21" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
       </c>
       <c r="BZ21" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -12405,7 +12311,7 @@
       </c>
       <c r="AW22" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AX22" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -12437,11 +12343,11 @@
       </c>
       <c r="BE22" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BF22" s="3">
         <f t="shared" ref="BF22:BO31" ca="1" si="8">IF(RAND() &lt; $F$1,  RANDBETWEEN(1, $F$2), 0)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BG22" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -12449,11 +12355,11 @@
       </c>
       <c r="BH22" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BI22" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BJ22" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -12461,7 +12367,7 @@
       </c>
       <c r="BK22" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL22" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -12469,7 +12375,7 @@
       </c>
       <c r="BM22" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -12501,7 +12407,7 @@
       </c>
       <c r="BU22" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BV22" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -12513,7 +12419,7 @@
       </c>
       <c r="BX22" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BY22" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -12521,7 +12427,7 @@
       </c>
       <c r="BZ22" s="3">
         <f t="shared" ref="BZ22:CI31" ca="1" si="10">IF(RAND() &lt; $F$1,  RANDBETWEEN(1, $F$2), 0)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CA22" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -12529,7 +12435,7 @@
       </c>
       <c r="CB22" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -12541,7 +12447,7 @@
       </c>
       <c r="CE22" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="CF22" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -12553,11 +12459,11 @@
       </c>
       <c r="CH22" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CI22" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CJ22" s="30">
         <f t="shared" ca="1" si="6"/>
@@ -12721,11 +12627,11 @@
       </c>
       <c r="BA23" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BB23" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BC23" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -12737,15 +12643,15 @@
       </c>
       <c r="BE23" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BF23" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BG23" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BH23" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -12757,7 +12663,7 @@
       </c>
       <c r="BJ23" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BK23" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -12765,7 +12671,7 @@
       </c>
       <c r="BL23" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BM23" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -12781,7 +12687,7 @@
       </c>
       <c r="BP23" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BQ23" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -12801,11 +12707,11 @@
       </c>
       <c r="BU23" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BV23" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BW23" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -12817,7 +12723,7 @@
       </c>
       <c r="BY23" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ23" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -12857,7 +12763,7 @@
       </c>
       <c r="CI23" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CJ23" s="30">
         <f t="shared" ca="1" si="6"/>
@@ -13005,7 +12911,7 @@
       </c>
       <c r="AW24" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AX24" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -13013,19 +12919,19 @@
       </c>
       <c r="AY24" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AZ24" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA24" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB24" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BC24" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -13033,7 +12939,7 @@
       </c>
       <c r="BD24" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BE24" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -13077,7 +12983,7 @@
       </c>
       <c r="BO24" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BP24" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -13089,7 +12995,7 @@
       </c>
       <c r="BR24" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -13105,7 +13011,7 @@
       </c>
       <c r="BV24" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BW24" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -13129,7 +13035,7 @@
       </c>
       <c r="CB24" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CC24" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -13141,11 +13047,11 @@
       </c>
       <c r="CE24" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CF24" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CG24" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -13313,7 +13219,7 @@
       </c>
       <c r="AY25" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AZ25" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -13325,7 +13231,7 @@
       </c>
       <c r="BB25" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BC25" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -13337,15 +13243,15 @@
       </c>
       <c r="BE25" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BF25" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BG25" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH25" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -13353,11 +13259,11 @@
       </c>
       <c r="BI25" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BJ25" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BK25" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -13377,7 +13283,7 @@
       </c>
       <c r="BO25" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BP25" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -13389,7 +13295,7 @@
       </c>
       <c r="BR25" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BS25" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -13401,11 +13307,11 @@
       </c>
       <c r="BU25" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BV25" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BW25" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -13429,7 +13335,7 @@
       </c>
       <c r="CB25" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -13609,7 +13515,7 @@
       </c>
       <c r="AX26" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -13625,7 +13531,7 @@
       </c>
       <c r="BB26" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BC26" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -13633,11 +13539,11 @@
       </c>
       <c r="BD26" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BE26" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BF26" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -13673,11 +13579,11 @@
       </c>
       <c r="BN26" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BO26" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BP26" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -13685,11 +13591,11 @@
       </c>
       <c r="BQ26" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BR26" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -13709,7 +13615,7 @@
       </c>
       <c r="BW26" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BX26" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -13717,11 +13623,11 @@
       </c>
       <c r="BY26" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BZ26" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="CA26" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -13733,7 +13639,7 @@
       </c>
       <c r="CC26" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CD26" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -13745,19 +13651,19 @@
       </c>
       <c r="CF26" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CG26" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CH26" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CI26" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CJ26" s="30">
         <f t="shared" ca="1" si="6"/>
@@ -13901,7 +13807,7 @@
       </c>
       <c r="AV27" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW27" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -13909,23 +13815,23 @@
       </c>
       <c r="AX27" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AY27" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AZ27" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BA27" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BB27" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BC27" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -13941,7 +13847,7 @@
       </c>
       <c r="BF27" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BG27" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -13949,7 +13855,7 @@
       </c>
       <c r="BH27" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BI27" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -13957,7 +13863,7 @@
       </c>
       <c r="BJ27" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BK27" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -13981,7 +13887,7 @@
       </c>
       <c r="BP27" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BQ27" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -13993,7 +13899,7 @@
       </c>
       <c r="BS27" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BT27" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -14001,7 +13907,7 @@
       </c>
       <c r="BU27" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BV27" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -14009,7 +13915,7 @@
       </c>
       <c r="BW27" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BX27" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -14021,7 +13927,7 @@
       </c>
       <c r="BZ27" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CA27" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -14029,11 +13935,11 @@
       </c>
       <c r="CB27" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CC27" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CD27" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -14053,7 +13959,7 @@
       </c>
       <c r="CH27" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CI27" s="8">
         <f t="shared" ca="1" si="10"/>
@@ -14201,11 +14107,11 @@
       </c>
       <c r="AV28" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AW28" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AX28" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -14241,7 +14147,7 @@
       </c>
       <c r="BF28" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BG28" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -14265,7 +14171,7 @@
       </c>
       <c r="BL28" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM28" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -14281,7 +14187,7 @@
       </c>
       <c r="BP28" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BQ28" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -14289,11 +14195,11 @@
       </c>
       <c r="BR28" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BS28" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BT28" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -14301,7 +14207,7 @@
       </c>
       <c r="BU28" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BV28" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -14309,11 +14215,11 @@
       </c>
       <c r="BW28" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BX28" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BY28" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -14329,27 +14235,27 @@
       </c>
       <c r="CB28" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CC28" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CD28" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CE28" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CF28" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CG28" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CH28" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -14509,7 +14415,7 @@
       </c>
       <c r="AX29" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AY29" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -14521,7 +14427,7 @@
       </c>
       <c r="BA29" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="BB29" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -14529,7 +14435,7 @@
       </c>
       <c r="BC29" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BD29" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -14537,7 +14443,7 @@
       </c>
       <c r="BE29" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BF29" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -14549,7 +14455,7 @@
       </c>
       <c r="BH29" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI29" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -14577,15 +14483,15 @@
       </c>
       <c r="BO29" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BP29" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BQ29" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BR29" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -14593,7 +14499,7 @@
       </c>
       <c r="BS29" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BT29" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -14605,7 +14511,7 @@
       </c>
       <c r="BV29" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BW29" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -14613,7 +14519,7 @@
       </c>
       <c r="BX29" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BY29" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -14637,11 +14543,11 @@
       </c>
       <c r="CD29" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CE29" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CF29" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -14653,7 +14559,7 @@
       </c>
       <c r="CH29" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CI29" s="8">
         <f t="shared" ca="1" si="10"/>
@@ -14809,7 +14715,7 @@
       </c>
       <c r="AX30" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY30" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -14821,7 +14727,7 @@
       </c>
       <c r="BA30" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BB30" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -14845,11 +14751,11 @@
       </c>
       <c r="BG30" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BH30" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BI30" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -14861,11 +14767,11 @@
       </c>
       <c r="BK30" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BL30" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BM30" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -14893,15 +14799,15 @@
       </c>
       <c r="BS30" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BT30" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BU30" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BV30" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -14909,7 +14815,7 @@
       </c>
       <c r="BW30" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BX30" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -14921,11 +14827,11 @@
       </c>
       <c r="BZ30" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CA30" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CB30" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -14941,7 +14847,7 @@
       </c>
       <c r="CE30" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CF30" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -14949,11 +14855,11 @@
       </c>
       <c r="CG30" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="CH30" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CI30" s="8">
         <f t="shared" ca="1" si="10"/>
@@ -15101,11 +15007,11 @@
       </c>
       <c r="AV31" s="9">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AW31" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AX31" s="10">
         <f t="shared" ca="1" si="7"/>
@@ -15125,7 +15031,7 @@
       </c>
       <c r="BB31" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC31" s="10">
         <f t="shared" ca="1" si="7"/>
@@ -15133,19 +15039,19 @@
       </c>
       <c r="BD31" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE31" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF31" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BG31" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH31" s="10">
         <f t="shared" ca="1" si="8"/>
@@ -15165,11 +15071,11 @@
       </c>
       <c r="BL31" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BM31" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BN31" s="10">
         <f t="shared" ca="1" si="8"/>
@@ -15185,7 +15091,7 @@
       </c>
       <c r="BQ31" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BR31" s="10">
         <f t="shared" ca="1" si="9"/>
@@ -15197,7 +15103,7 @@
       </c>
       <c r="BT31" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BU31" s="10">
         <f t="shared" ca="1" si="9"/>
@@ -15213,7 +15119,7 @@
       </c>
       <c r="BX31" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BY31" s="10">
         <f t="shared" ca="1" si="9"/>
@@ -15221,7 +15127,7 @@
       </c>
       <c r="BZ31" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CA31" s="10">
         <f t="shared" ca="1" si="10"/>
@@ -15229,7 +15135,7 @@
       </c>
       <c r="CB31" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CC31" s="10">
         <f t="shared" ca="1" si="10"/>
@@ -15245,7 +15151,7 @@
       </c>
       <c r="CF31" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CG31" s="10">
         <f t="shared" ca="1" si="10"/>
@@ -15565,25 +15471,25 @@
     <mergeCell ref="I8:N8"/>
   </mergeCells>
   <conditionalFormatting sqref="AV12:CI31 C12:AP30 X25:AP31 C32:AP32">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:AP32">
-    <cfRule type="cellIs" dxfId="18" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="greaterThan">
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:AP34">
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12:AP31">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15604,7 +15510,7 @@
   <dimension ref="A1:CM48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I4" sqref="I4:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15682,7 +15588,7 @@
         <v>24</v>
       </c>
       <c r="I4" s="46" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="46"/>
       <c r="K4" s="46"/>
@@ -15706,7 +15612,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" s="47"/>
       <c r="K5" s="47"/>
@@ -16171,11 +16077,11 @@
       <c r="AX8" s="1"/>
       <c r="AY8" s="3">
         <f t="shared" ref="AY8:CL8" ca="1" si="0">RANDBETWEEN(1, $BI$3)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AZ8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BA8" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -16187,91 +16093,91 @@
       </c>
       <c r="BC8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BD8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BE8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BG8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BI8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BJ8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="BK8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BL8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BM8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BN8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BO8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BP8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BQ8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BR8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BS8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BT8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BU8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BV8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BW8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BX8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BY8" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -16279,15 +16185,15 @@
       </c>
       <c r="BZ8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CA8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="CB8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CC8" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -16295,11 +16201,11 @@
       </c>
       <c r="CD8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="CE8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="CF8" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -16307,23 +16213,23 @@
       </c>
       <c r="CG8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="CH8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="CI8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="CJ8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CK8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="CL8" s="3">
         <f t="shared" ca="1" si="0"/>
@@ -16468,7 +16374,7 @@
       </c>
       <c r="AS9">
         <f t="shared" ref="AS9:AS28" ca="1" si="1">RAND()</f>
-        <v>0.21373223797121821</v>
+        <v>0.19244958742825624</v>
       </c>
       <c r="AW9" s="49" t="s">
         <v>12</v>
@@ -16478,7 +16384,7 @@
       </c>
       <c r="AY9" s="4">
         <f t="shared" ref="AY9:BH18" ca="1" si="2">IF(RAND() &lt; $BI$1,  RANDBETWEEN(1, $BI$2), 0)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ9" s="5">
         <f t="shared" ca="1" si="2"/>
@@ -16486,7 +16392,7 @@
       </c>
       <c r="BA9" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BB9" s="5">
         <f t="shared" ca="1" si="2"/>
@@ -16494,11 +16400,11 @@
       </c>
       <c r="BC9" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BE9" s="5">
         <f t="shared" ca="1" si="2"/>
@@ -16506,7 +16412,7 @@
       </c>
       <c r="BF9" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BG9" s="5">
         <f t="shared" ca="1" si="2"/>
@@ -16530,7 +16436,7 @@
       </c>
       <c r="BL9" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BM9" s="5">
         <f t="shared" ca="1" si="3"/>
@@ -16546,19 +16452,19 @@
       </c>
       <c r="BP9" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BQ9" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BR9" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BS9" s="5">
         <f t="shared" ref="BS9:CB18" ca="1" si="4">IF(RAND() &lt; $BI$1,  RANDBETWEEN(1, $BI$2), 0)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BT9" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -16574,7 +16480,7 @@
       </c>
       <c r="BW9" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -16586,7 +16492,7 @@
       </c>
       <c r="BZ9" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CA9" s="5">
         <f t="shared" ca="1" si="4"/>
@@ -16618,7 +16524,7 @@
       </c>
       <c r="CH9" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CI9" s="5">
         <f t="shared" ca="1" si="5"/>
@@ -16638,7 +16544,7 @@
       </c>
       <c r="CM9" s="29">
         <f ca="1">RANDBETWEEN($M$7*$BI$1*$BI$2/$BI$4, $M$7*$BI$1*$BI$2/1.5)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:91" x14ac:dyDescent="0.3">
@@ -16774,7 +16680,7 @@
       </c>
       <c r="AS10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71281876152381396</v>
+        <v>0.31105668227894856</v>
       </c>
       <c r="AW10" s="49"/>
       <c r="AX10" s="19">
@@ -16786,11 +16692,11 @@
       </c>
       <c r="AZ10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BA10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB10" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -16798,11 +16704,11 @@
       </c>
       <c r="BC10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BE10" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -16818,15 +16724,15 @@
       </c>
       <c r="BH10" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BI10" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BJ10" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BK10" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -16890,7 +16796,7 @@
       </c>
       <c r="BZ10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CA10" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -16898,7 +16804,7 @@
       </c>
       <c r="CB10" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -16918,7 +16824,7 @@
       </c>
       <c r="CG10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CH10" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -16926,7 +16832,7 @@
       </c>
       <c r="CI10" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CJ10" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -16942,7 +16848,7 @@
       </c>
       <c r="CM10" s="30">
         <f ca="1">RANDBETWEEN($M$7*$BI$1*$BI$2/$BI$4, $M$7*$BI$1*$BI$2/1.5)</f>
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:91" x14ac:dyDescent="0.3">
@@ -17078,7 +16984,7 @@
       </c>
       <c r="AS11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35541152710050916</v>
+        <v>0.2408208203220269</v>
       </c>
       <c r="AW11" s="49"/>
       <c r="AX11" s="19">
@@ -17114,115 +17020,115 @@
       </c>
       <c r="BF11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BG11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BH11" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BI11" s="3">
         <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BJ11" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BK11" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BL11" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BM11" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BN11" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BO11" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BP11" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BQ11" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BR11" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="BS11" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BT11" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BU11" s="3">
+        <f t="shared" ca="1" si="4"/>
         <v>10</v>
       </c>
-      <c r="BJ11" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="BK11" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BL11" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BM11" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BN11" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BO11" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BP11" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BQ11" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BR11" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BS11" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="BT11" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BU11" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
       <c r="BV11" s="3">
         <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BW11" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BX11" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="BY11" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BZ11" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="CA11" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="CB11" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="CC11" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CD11" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="CE11" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF11" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CG11" s="3">
+        <f t="shared" ca="1" si="5"/>
         <v>6</v>
-      </c>
-      <c r="BW11" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BX11" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="BY11" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BZ11" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CA11" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CB11" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CC11" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CD11" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CE11" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CF11" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CG11" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
       </c>
       <c r="CH11" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -17246,7 +17152,7 @@
       </c>
       <c r="CM11" s="30">
         <f ca="1">RANDBETWEEN($M$7*$BI$1*$BI$2/$BI$4, $M$7*$BI$1*$BI$2/1.5)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:91" x14ac:dyDescent="0.3">
@@ -17382,7 +17288,7 @@
       </c>
       <c r="AS12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.60316528914336964</v>
+        <v>0.99982816227964078</v>
       </c>
       <c r="AW12" s="49"/>
       <c r="AX12" s="19">
@@ -17394,15 +17300,15 @@
       </c>
       <c r="AZ12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BB12" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC12" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -17426,27 +17332,27 @@
       </c>
       <c r="BH12" s="3">
         <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="BI12" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="BJ12" s="3">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="BK12" s="3">
+        <f t="shared" ca="1" si="3"/>
         <v>9</v>
       </c>
-      <c r="BI12" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BJ12" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="BK12" s="3">
-        <f t="shared" ca="1" si="3"/>
-        <v>0</v>
-      </c>
       <c r="BL12" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BM12" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -17466,7 +17372,7 @@
       </c>
       <c r="BR12" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -17486,11 +17392,11 @@
       </c>
       <c r="BW12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BY12" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -17506,11 +17412,11 @@
       </c>
       <c r="CB12" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="CD12" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -17526,11 +17432,11 @@
       </c>
       <c r="CG12" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="CH12" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CI12" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -17542,7 +17448,7 @@
       </c>
       <c r="CK12" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CL12" s="8">
         <f t="shared" ca="1" si="5"/>
@@ -17550,7 +17456,7 @@
       </c>
       <c r="CM12" s="30">
         <f ca="1">RANDBETWEEN($M$7*$BI$1*$BI$2/$BI$4, $M$7*$BI$1*$BI$2/1.5)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:91" x14ac:dyDescent="0.3">
@@ -17686,7 +17592,7 @@
       </c>
       <c r="AS13">
         <f t="shared" ca="1" si="1"/>
-        <v>3.5108980863167716E-3</v>
+        <v>0.37646066646264209</v>
       </c>
       <c r="AW13" s="49"/>
       <c r="AX13" s="19">
@@ -17698,7 +17604,7 @@
       </c>
       <c r="AZ13" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -17742,7 +17648,7 @@
       </c>
       <c r="BK13" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BL13" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -17750,19 +17656,19 @@
       </c>
       <c r="BM13" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BN13" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BO13" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BP13" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BQ13" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -17770,7 +17676,7 @@
       </c>
       <c r="BR13" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -17778,11 +17684,11 @@
       </c>
       <c r="BT13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BU13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BV13" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -17806,11 +17712,11 @@
       </c>
       <c r="CA13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CB13" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -17842,15 +17748,15 @@
       </c>
       <c r="CJ13" s="3">
         <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CK13" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CL13" s="8">
+        <f t="shared" ca="1" si="5"/>
         <v>8</v>
-      </c>
-      <c r="CK13" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CL13" s="8">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
       </c>
       <c r="CM13" s="30">
         <f t="shared" ref="CM13:CM28" ca="1" si="6">RANDBETWEEN($M$7*$BI$1*$BI$2/$BI$4, $M$7*$BI$1*$BI$2/1.5)/2</f>
@@ -17990,7 +17896,7 @@
       </c>
       <c r="AS14">
         <f t="shared" ca="1" si="1"/>
-        <v>8.6429035890344785E-2</v>
+        <v>0.38262537543960129</v>
       </c>
       <c r="AW14" s="49"/>
       <c r="AX14" s="19">
@@ -18026,11 +17932,11 @@
       </c>
       <c r="BF14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BG14" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BH14" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -18038,7 +17944,7 @@
       </c>
       <c r="BI14" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ14" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -18066,7 +17972,7 @@
       </c>
       <c r="BP14" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ14" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -18078,7 +17984,7 @@
       </c>
       <c r="BS14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BT14" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -18090,7 +17996,7 @@
       </c>
       <c r="BV14" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BW14" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -18098,43 +18004,43 @@
       </c>
       <c r="BX14" s="3">
         <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BY14" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BZ14" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="CA14" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="CB14" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="CC14" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CD14" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CE14" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CF14" s="3">
+        <f t="shared" ca="1" si="5"/>
         <v>8</v>
       </c>
-      <c r="BY14" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BZ14" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CA14" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="CB14" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CC14" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="CD14" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CE14" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="CF14" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
       <c r="CG14" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CH14" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -18158,7 +18064,7 @@
       </c>
       <c r="CM14" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="15" spans="1:91" x14ac:dyDescent="0.3">
@@ -18294,7 +18200,7 @@
       </c>
       <c r="AS15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49363799851182755</v>
+        <v>3.3069544168095044E-3</v>
       </c>
       <c r="AW15" s="49"/>
       <c r="AX15" s="19">
@@ -18310,7 +18216,7 @@
       </c>
       <c r="BA15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BB15" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -18326,7 +18232,7 @@
       </c>
       <c r="BE15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BF15" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -18334,15 +18240,15 @@
       </c>
       <c r="BG15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BH15" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BI15" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BJ15" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -18354,11 +18260,11 @@
       </c>
       <c r="BL15" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BM15" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BN15" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -18366,7 +18272,7 @@
       </c>
       <c r="BO15" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BP15" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -18378,7 +18284,7 @@
       </c>
       <c r="BR15" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BS15" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -18390,7 +18296,7 @@
       </c>
       <c r="BU15" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BV15" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -18410,59 +18316,59 @@
       </c>
       <c r="BZ15" s="3">
         <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="CA15" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="CB15" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="CC15" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CD15" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CE15" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="CF15" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CG15" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CH15" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CI15" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CJ15" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CK15" s="3">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="CL15" s="8">
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
-      </c>
-      <c r="CA15" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CB15" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CC15" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CD15" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CE15" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CF15" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CG15" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CH15" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CI15" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CJ15" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="CK15" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="CL15" s="8">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
       </c>
       <c r="CM15" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="16" spans="1:91" x14ac:dyDescent="0.3">
@@ -18598,7 +18504,7 @@
       </c>
       <c r="AS16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12508231228474032</v>
+        <v>0.41864776602583265</v>
       </c>
       <c r="AW16" s="49"/>
       <c r="AX16" s="19">
@@ -18614,15 +18520,15 @@
       </c>
       <c r="BA16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BB16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BC16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -18630,11 +18536,11 @@
       </c>
       <c r="BE16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BF16" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BG16" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -18654,19 +18560,19 @@
       </c>
       <c r="BK16" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BL16" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BM16" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BN16" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO16" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -18690,7 +18596,7 @@
       </c>
       <c r="BT16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BU16" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -18698,7 +18604,7 @@
       </c>
       <c r="BV16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BW16" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -18718,7 +18624,7 @@
       </c>
       <c r="CA16" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CB16" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -18734,11 +18640,11 @@
       </c>
       <c r="CE16" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CF16" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="CG16" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -18754,7 +18660,7 @@
       </c>
       <c r="CJ16" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CK16" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -18902,7 +18808,7 @@
       </c>
       <c r="AS17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66450701558718017</v>
+        <v>0.46572457853489679</v>
       </c>
       <c r="AW17" s="49"/>
       <c r="AX17" s="19">
@@ -18922,11 +18828,11 @@
       </c>
       <c r="BB17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -18938,7 +18844,7 @@
       </c>
       <c r="BF17" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG17" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -18950,7 +18856,7 @@
       </c>
       <c r="BI17" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ17" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -18970,11 +18876,11 @@
       </c>
       <c r="BN17" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BO17" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BP17" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -18986,7 +18892,7 @@
       </c>
       <c r="BR17" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -18998,7 +18904,7 @@
       </c>
       <c r="BU17" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BV17" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -19006,35 +18912,35 @@
       </c>
       <c r="BW17" s="3">
         <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BX17" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BY17" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="BZ17" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="CA17" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="CB17" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="CC17" s="3">
+        <f t="shared" ca="1" si="5"/>
         <v>1</v>
       </c>
-      <c r="BX17" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BY17" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BZ17" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CA17" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CB17" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="CC17" s="3">
-        <f t="shared" ca="1" si="5"/>
-        <v>0</v>
-      </c>
       <c r="CD17" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CE17" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -19206,7 +19112,7 @@
       </c>
       <c r="AS18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51357066018161379</v>
+        <v>0.88294387862865165</v>
       </c>
       <c r="AW18" s="49"/>
       <c r="AX18" s="19">
@@ -19218,7 +19124,7 @@
       </c>
       <c r="AZ18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BA18" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -19238,15 +19144,15 @@
       </c>
       <c r="BE18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BF18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BG18" s="3">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH18" s="3">
         <f t="shared" ca="1" si="2"/>
@@ -19254,7 +19160,7 @@
       </c>
       <c r="BI18" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BJ18" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -19262,7 +19168,7 @@
       </c>
       <c r="BK18" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BL18" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -19270,7 +19176,7 @@
       </c>
       <c r="BM18" s="3">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BN18" s="3">
         <f t="shared" ca="1" si="3"/>
@@ -19298,27 +19204,27 @@
       </c>
       <c r="BT18" s="3">
         <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="BU18" s="3">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="BV18" s="3">
+        <f t="shared" ca="1" si="4"/>
         <v>8</v>
       </c>
-      <c r="BU18" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="BV18" s="3">
-        <f t="shared" ca="1" si="4"/>
-        <v>0</v>
-      </c>
       <c r="BW18" s="3">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="BX18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BY18" s="3">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BZ18" s="3">
         <f t="shared" ca="1" si="4"/>
@@ -19350,11 +19256,11 @@
       </c>
       <c r="CG18" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="CH18" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CI18" s="3">
         <f t="shared" ca="1" si="5"/>
@@ -19366,7 +19272,7 @@
       </c>
       <c r="CK18" s="3">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CL18" s="8">
         <f t="shared" ca="1" si="5"/>
@@ -19510,7 +19416,7 @@
       </c>
       <c r="AS19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.53207957797358618</v>
+        <v>0.8369115647076768</v>
       </c>
       <c r="AW19" s="49"/>
       <c r="AX19" s="19">
@@ -19518,7 +19424,7 @@
       </c>
       <c r="AY19" s="7">
         <f t="shared" ref="AY19:BH28" ca="1" si="7">IF(RAND() &lt; $BI$1,  RANDBETWEEN(1, $BI$2), 0)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AZ19" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -19526,7 +19432,7 @@
       </c>
       <c r="BA19" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BB19" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -19534,7 +19440,7 @@
       </c>
       <c r="BC19" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BD19" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -19562,7 +19468,7 @@
       </c>
       <c r="BJ19" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BK19" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -19586,7 +19492,7 @@
       </c>
       <c r="BP19" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BQ19" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -19610,7 +19516,7 @@
       </c>
       <c r="BV19" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BW19" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -19622,7 +19528,7 @@
       </c>
       <c r="BY19" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BZ19" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -19666,7 +19572,7 @@
       </c>
       <c r="CJ19" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="CK19" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -19814,14 +19720,14 @@
       </c>
       <c r="AS20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28558337014615098</v>
+        <v>4.2090301622686122E-2</v>
       </c>
       <c r="AX20" s="19">
         <v>12</v>
       </c>
       <c r="AY20" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AZ20" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -19833,7 +19739,7 @@
       </c>
       <c r="BB20" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BC20" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -19841,7 +19747,7 @@
       </c>
       <c r="BD20" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BE20" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -19857,7 +19763,7 @@
       </c>
       <c r="BH20" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -19865,11 +19771,11 @@
       </c>
       <c r="BJ20" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BK20" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BL20" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -19877,7 +19783,7 @@
       </c>
       <c r="BM20" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BN20" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -19893,11 +19799,11 @@
       </c>
       <c r="BQ20" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BR20" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BS20" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -19905,19 +19811,19 @@
       </c>
       <c r="BT20" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BU20" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BV20" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BW20" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BX20" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -19937,11 +19843,11 @@
       </c>
       <c r="CB20" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CD20" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -19949,7 +19855,7 @@
       </c>
       <c r="CE20" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CF20" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -19957,7 +19863,7 @@
       </c>
       <c r="CG20" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="CH20" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -19965,15 +19871,15 @@
       </c>
       <c r="CI20" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CJ20" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="CK20" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="CL20" s="8">
         <f t="shared" ca="1" si="10"/>
@@ -19981,7 +19887,7 @@
       </c>
       <c r="CM20" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="21" spans="1:91" x14ac:dyDescent="0.3">
@@ -20117,14 +20023,14 @@
       </c>
       <c r="AS21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26912159980018879</v>
+        <v>0.45482469869732167</v>
       </c>
       <c r="AX21" s="19">
         <v>13</v>
       </c>
       <c r="AY21" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AZ21" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -20140,7 +20046,7 @@
       </c>
       <c r="BC21" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="BD21" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -20148,7 +20054,7 @@
       </c>
       <c r="BE21" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BF21" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -20172,11 +20078,11 @@
       </c>
       <c r="BK21" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BL21" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BM21" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -20204,7 +20110,7 @@
       </c>
       <c r="BS21" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BT21" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -20220,11 +20126,11 @@
       </c>
       <c r="BW21" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BY21" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -20232,11 +20138,11 @@
       </c>
       <c r="BZ21" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CA21" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CB21" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -20256,11 +20162,11 @@
       </c>
       <c r="CF21" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG21" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CH21" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -20272,11 +20178,11 @@
       </c>
       <c r="CJ21" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CK21" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CL21" s="8">
         <f t="shared" ca="1" si="10"/>
@@ -20284,7 +20190,7 @@
       </c>
       <c r="CM21" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>5.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:91" x14ac:dyDescent="0.3">
@@ -20420,18 +20326,18 @@
       </c>
       <c r="AS22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2171803813601898</v>
+        <v>0.64899558657609202</v>
       </c>
       <c r="AX22" s="19">
         <v>14</v>
       </c>
       <c r="AY22" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AZ22" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BA22" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -20439,11 +20345,11 @@
       </c>
       <c r="BB22" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BC22" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BD22" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -20471,7 +20377,7 @@
       </c>
       <c r="BJ22" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK22" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -20479,11 +20385,11 @@
       </c>
       <c r="BL22" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BM22" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BN22" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -20495,7 +20401,7 @@
       </c>
       <c r="BP22" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BQ22" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -20507,7 +20413,7 @@
       </c>
       <c r="BS22" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BT22" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -20515,7 +20421,7 @@
       </c>
       <c r="BU22" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BV22" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -20523,7 +20429,7 @@
       </c>
       <c r="BW22" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -20531,19 +20437,19 @@
       </c>
       <c r="BY22" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BZ22" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CA22" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CB22" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -20571,11 +20477,11 @@
       </c>
       <c r="CI22" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CJ22" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CK22" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -20587,7 +20493,7 @@
       </c>
       <c r="CM22" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="23" spans="1:91" x14ac:dyDescent="0.3">
@@ -20723,7 +20629,7 @@
       </c>
       <c r="AS23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38470320356606658</v>
+        <v>0.50362204761859142</v>
       </c>
       <c r="AX23" s="19">
         <v>15</v>
@@ -20734,7 +20640,7 @@
       </c>
       <c r="AZ23" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA23" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -20742,7 +20648,7 @@
       </c>
       <c r="BB23" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BC23" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -20754,7 +20660,7 @@
       </c>
       <c r="BE23" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF23" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -20762,7 +20668,7 @@
       </c>
       <c r="BG23" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH23" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -20778,11 +20684,11 @@
       </c>
       <c r="BK23" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BL23" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BM23" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -20806,7 +20712,7 @@
       </c>
       <c r="BR23" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -20814,7 +20720,7 @@
       </c>
       <c r="BT23" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BU23" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -20826,7 +20732,7 @@
       </c>
       <c r="BW23" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BX23" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -20842,7 +20748,7 @@
       </c>
       <c r="CA23" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="CB23" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -20854,7 +20760,7 @@
       </c>
       <c r="CD23" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CE23" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -20866,7 +20772,7 @@
       </c>
       <c r="CG23" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="CH23" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -20874,11 +20780,11 @@
       </c>
       <c r="CI23" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CJ23" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CK23" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -20890,7 +20796,7 @@
       </c>
       <c r="CM23" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:91" x14ac:dyDescent="0.3">
@@ -21026,18 +20932,18 @@
       </c>
       <c r="AS24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38552575303201053</v>
+        <v>0.10850057217308662</v>
       </c>
       <c r="AX24" s="19">
         <v>16</v>
       </c>
       <c r="AY24" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AZ24" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BA24" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -21045,15 +20951,15 @@
       </c>
       <c r="BB24" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BC24" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE24" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -21065,7 +20971,7 @@
       </c>
       <c r="BG24" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BH24" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -21101,11 +21007,11 @@
       </c>
       <c r="BP24" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BQ24" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BR24" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -21133,19 +21039,19 @@
       </c>
       <c r="BX24" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BY24" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BZ24" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="CA24" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CB24" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -21169,7 +21075,7 @@
       </c>
       <c r="CG24" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="CH24" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -21329,7 +21235,7 @@
       </c>
       <c r="AS25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.70776909970695567</v>
+        <v>0.53162823042383234</v>
       </c>
       <c r="AX25" s="19">
         <v>17</v>
@@ -21344,7 +21250,7 @@
       </c>
       <c r="BA25" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB25" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -21356,7 +21262,7 @@
       </c>
       <c r="BD25" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BE25" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -21376,11 +21282,11 @@
       </c>
       <c r="BI25" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BJ25" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK25" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -21388,7 +21294,7 @@
       </c>
       <c r="BL25" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BM25" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -21424,11 +21330,11 @@
       </c>
       <c r="BU25" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BV25" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BW25" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -21436,15 +21342,15 @@
       </c>
       <c r="BX25" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BY25" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ25" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="CA25" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -21452,7 +21358,7 @@
       </c>
       <c r="CB25" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="CC25" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -21484,7 +21390,7 @@
       </c>
       <c r="CJ25" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="CK25" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -21492,11 +21398,11 @@
       </c>
       <c r="CL25" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CM25" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:91" x14ac:dyDescent="0.3">
@@ -21632,7 +21538,7 @@
       </c>
       <c r="AS26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.19106380929650535</v>
+        <v>0.97650421649365748</v>
       </c>
       <c r="AX26" s="19">
         <v>18</v>
@@ -21655,11 +21561,11 @@
       </c>
       <c r="BC26" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BD26" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BE26" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -21675,7 +21581,7 @@
       </c>
       <c r="BH26" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -21695,7 +21601,7 @@
       </c>
       <c r="BM26" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BN26" s="3">
         <f t="shared" ca="1" si="8"/>
@@ -21715,7 +21621,7 @@
       </c>
       <c r="BR26" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BS26" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -21723,7 +21629,7 @@
       </c>
       <c r="BT26" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BU26" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -21751,15 +21657,15 @@
       </c>
       <c r="CA26" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CB26" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CD26" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -21775,7 +21681,7 @@
       </c>
       <c r="CG26" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CH26" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -21783,11 +21689,11 @@
       </c>
       <c r="CI26" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CJ26" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="CK26" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -21795,11 +21701,11 @@
       </c>
       <c r="CL26" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="CM26" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>6.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:91" x14ac:dyDescent="0.3">
@@ -21935,14 +21841,14 @@
       </c>
       <c r="AS27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.81709214285851628</v>
+        <v>0.54703081016937527</v>
       </c>
       <c r="AX27" s="19">
         <v>19</v>
       </c>
       <c r="AY27" s="7">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AZ27" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -21954,15 +21860,15 @@
       </c>
       <c r="BB27" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BC27" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BD27" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BE27" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -21974,7 +21880,7 @@
       </c>
       <c r="BG27" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH27" s="3">
         <f t="shared" ca="1" si="7"/>
@@ -22030,23 +21936,23 @@
       </c>
       <c r="BU27" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BV27" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BW27" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BX27" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BY27" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BZ27" s="3">
         <f t="shared" ca="1" si="9"/>
@@ -22058,7 +21964,7 @@
       </c>
       <c r="CB27" s="3">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="CC27" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -22066,7 +21972,7 @@
       </c>
       <c r="CD27" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="CE27" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -22090,7 +21996,7 @@
       </c>
       <c r="CJ27" s="3">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CK27" s="3">
         <f t="shared" ca="1" si="10"/>
@@ -22098,11 +22004,11 @@
       </c>
       <c r="CL27" s="8">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CM27" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="28" spans="1:91" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -22238,7 +22144,7 @@
       </c>
       <c r="AS28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.63211827265972642</v>
+        <v>9.6326521658895103E-2</v>
       </c>
       <c r="AX28" s="19">
         <v>20</v>
@@ -22249,11 +22155,11 @@
       </c>
       <c r="AZ28" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BA28" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BB28" s="10">
         <f t="shared" ca="1" si="7"/>
@@ -22277,11 +22183,11 @@
       </c>
       <c r="BG28" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BH28" s="10">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BI28" s="10">
         <f t="shared" ca="1" si="8"/>
@@ -22289,7 +22195,7 @@
       </c>
       <c r="BJ28" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BK28" s="10">
         <f t="shared" ca="1" si="8"/>
@@ -22297,15 +22203,15 @@
       </c>
       <c r="BL28" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BM28" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BN28" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BO28" s="10">
         <f t="shared" ca="1" si="8"/>
@@ -22313,19 +22219,19 @@
       </c>
       <c r="BP28" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BQ28" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BR28" s="10">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BS28" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="BT28" s="10">
         <f t="shared" ca="1" si="9"/>
@@ -22333,11 +22239,11 @@
       </c>
       <c r="BU28" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BV28" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BW28" s="10">
         <f t="shared" ca="1" si="9"/>
@@ -22345,7 +22251,7 @@
       </c>
       <c r="BX28" s="10">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BY28" s="10">
         <f t="shared" ca="1" si="9"/>
@@ -22365,7 +22271,7 @@
       </c>
       <c r="CC28" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CD28" s="10">
         <f t="shared" ca="1" si="10"/>
@@ -22377,7 +22283,7 @@
       </c>
       <c r="CF28" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG28" s="10">
         <f t="shared" ca="1" si="10"/>
@@ -22389,7 +22295,7 @@
       </c>
       <c r="CI28" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="CJ28" s="10">
         <f t="shared" ca="1" si="10"/>
@@ -22401,11 +22307,11 @@
       </c>
       <c r="CL28" s="11">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CM28" s="30">
         <f t="shared" ca="1" si="6"/>
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="29" spans="1:91" ht="15" thickTop="1" x14ac:dyDescent="0.3">
@@ -22560,19 +22466,19 @@
         <v>0</v>
       </c>
       <c r="H31" s="13">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="I31" s="13">
         <v>0</v>
       </c>
       <c r="J31" s="13">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="K31" s="13">
         <v>0</v>
       </c>
       <c r="L31" s="13">
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="M31" s="13">
         <v>0</v>
@@ -22713,12 +22619,12 @@
     <mergeCell ref="I5:N5"/>
   </mergeCells>
   <conditionalFormatting sqref="AY9:CL28 Q26:W28 E28:AP28 C9:AP27 C31:AP31">
-    <cfRule type="cellIs" dxfId="21" priority="3" stopIfTrue="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9:AP28 C31:AP31">
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22984,6 +22890,8 @@
 else:
     dippyOpts['doCut'] = '1'
     dippyOpts['CutCGL'] = '0'
+dippyOpts['SubProbParallel'] = 1
+dippyOpts['NumConcurrentThreadsSubProb'] = 2
 dippy.Solve(prob, dippyOpts)
 #    'LogDebugLevel': '3',
 #    'LogLevel': '4',
@@ -23007,7 +22915,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C8AD430-9E2C-4CC8-8E17-8CF28C80C3C6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F039AF5B-38F6-4A48-A618-97AA170DDD0D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://opensolver.org"/>
